--- a/BalanceSheet/ULTA_bal.xlsx
+++ b/BalanceSheet/ULTA_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>270883000.0</v>
+        <v>1168000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-70555000.0</v>
+        <v>1439000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-27977000.0</v>
+        <v>1369000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-46865000.0</v>
+        <v>1341000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>323219000.0</v>
+        <v>1294000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1616920000.0</v>
@@ -1998,19 +1998,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-13000.0</v>
+        <v>477000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>80823000.0</v>
+        <v>479000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-65451000.0</v>
+        <v>398000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>46965000.0</v>
+        <v>466000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-180984000.0</v>
+        <v>414000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>594993000.0</v>
@@ -3586,19 +3586,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-23753000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-5160000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-1004000.0</v>
+        <v>94000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>5909000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5511000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>83856000.0</v>
